--- a/results/InceptionNet/AppliancesEnergy/quant-dynamic_low-rank_pruning_quant-static/1_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/quant-dynamic_low-rank_pruning_quant-static/1_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.356</v>
+        <v>-0.037</v>
       </c>
       <c r="D4" t="n">
-        <v>-18223.08</v>
+        <v>-294.74</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.035</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.155</v>
+        <v>-0.015</v>
       </c>
       <c r="D5" t="n">
-        <v>-773.91</v>
+        <v>-142.86</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.625</v>
       </c>
       <c r="C6" t="n">
-        <v>10.678</v>
+        <v>2.775</v>
       </c>
       <c r="D6" t="n">
-        <v>239.85</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.184</v>
       </c>
       <c r="C7" t="n">
-        <v>0.712</v>
+        <v>0.206</v>
       </c>
       <c r="D7" t="n">
-        <v>259.6</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>21.58</v>
+        <v>9.856999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>96.56</v>
+        <v>-10.22</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.217</v>
       </c>
       <c r="C9" t="n">
-        <v>9.068</v>
+        <v>2.694</v>
       </c>
       <c r="D9" t="n">
-        <v>311.99</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>11.641</v>
       </c>
       <c r="C10" t="n">
-        <v>133.528</v>
+        <v>12.041</v>
       </c>
       <c r="D10" t="n">
-        <v>640.05</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
       <c r="C11" t="n">
-        <v>1.407</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="n">
-        <v>2169.35</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.912</v>
+        <v>-0.018</v>
       </c>
       <c r="D12" t="n">
-        <v>9917.389999999999</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.412</v>
       </c>
       <c r="C13" t="n">
-        <v>11.555</v>
+        <v>3.47</v>
       </c>
       <c r="D13" t="n">
-        <v>172.01</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.880196034908295</v>
+        <v>3.194964590526762</v>
       </c>
       <c r="C4" t="n">
-        <v>6.278759986162186</v>
+        <v>4.043427813620794</v>
       </c>
       <c r="D4" t="n">
-        <v>6.78</v>
+        <v>26.56</v>
       </c>
       <c r="E4" t="n">
-        <v>2.082458518064496</v>
+        <v>0.6216922288979793</v>
       </c>
       <c r="F4" t="n">
-        <v>2.223269682989601</v>
+        <v>0.5675525362581553</v>
       </c>
       <c r="G4" t="n">
-        <v>6.76</v>
+        <v>-8.710000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.678</v>
+        <v>1.712</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.2</v>
+        <v>-42.04</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.1651218017403</v>
+        <v>3.250476535399703</v>
       </c>
       <c r="C6" t="n">
-        <v>2.604428064654775</v>
+        <v>2.294144897752054</v>
       </c>
       <c r="D6" t="n">
-        <v>-17.71</v>
+        <v>-29.42</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7252562013763215</v>
+        <v>0.9422319237055762</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7305150608056749</v>
+        <v>0.3135253418086625</v>
       </c>
       <c r="G6" t="n">
-        <v>0.73</v>
+        <v>-66.73</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/quant-dynamic_low-rank_pruning_quant-static/1_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/quant-dynamic_low-rank_pruning_quant-static/1_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.019</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.037</v>
+        <v>-0.06</v>
       </c>
       <c r="D4" t="n">
-        <v>-294.74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.035</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.015</v>
+        <v>-0.027</v>
       </c>
       <c r="D5" t="n">
-        <v>-142.86</v>
+        <v>-242.11</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.625</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>2.775</v>
+        <v>2.837</v>
       </c>
       <c r="D6" t="n">
-        <v>5.71</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.184</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206</v>
+        <v>0.213</v>
       </c>
       <c r="D7" t="n">
-        <v>11.96</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>9.856999999999999</v>
+        <v>9.961</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.22</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.217</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.694</v>
+        <v>2.634</v>
       </c>
       <c r="D9" t="n">
-        <v>21.52</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.641</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>12.041</v>
+        <v>12.265</v>
       </c>
       <c r="D10" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="D11" t="n">
-        <v>11.11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.018</v>
+        <v>-0.037</v>
       </c>
       <c r="D12" t="n">
-        <v>-220</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.412</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>3.47</v>
+        <v>3.502</v>
       </c>
       <c r="D13" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.194964590526762</v>
+        <v>3.003411037581308</v>
       </c>
       <c r="C4" t="n">
-        <v>4.043427813620794</v>
+        <v>3.837203780810038</v>
       </c>
       <c r="D4" t="n">
-        <v>26.56</v>
+        <v>27.76</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6216922288979793</v>
+        <v>0.210852592610129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5675525362581553</v>
+        <v>0.5240968138618217</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.710000000000001</v>
+        <v>148.56</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.712</v>
+        <v>2.122</v>
       </c>
       <c r="D5" t="n">
-        <v>-42.04</v>
+        <v>-28.17</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.250476535399703</v>
+        <v>3.49081147564756</v>
       </c>
       <c r="C6" t="n">
-        <v>2.294144897752054</v>
+        <v>2.653091972664827</v>
       </c>
       <c r="D6" t="n">
-        <v>-29.42</v>
+        <v>-24</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9422319237055762</v>
+        <v>0.2700110117405579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3135253418086625</v>
+        <v>0.2347953986559222</v>
       </c>
       <c r="G6" t="n">
-        <v>-66.73</v>
+        <v>-13.04</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/quant-dynamic_low-rank_pruning_quant-static/1_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/quant-dynamic_low-rank_pruning_quant-static/1_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
